--- a/Documents/log.xlsx
+++ b/Documents/log.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="51">
   <si>
     <t>Task</t>
   </si>
@@ -179,6 +179,15 @@
   </si>
   <si>
     <t>Hold</t>
+  </si>
+  <si>
+    <t>already dept column is their in the page</t>
+  </si>
+  <si>
+    <t>it's a generic report can't we delete it manually in the excel ? Or ignore it</t>
+  </si>
+  <si>
+    <t>bit difficult to do it, as I need to use Ajax</t>
   </si>
 </sst>
 </file>
@@ -638,8 +647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:H32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B29" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -974,7 +983,9 @@
       <c r="B19" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="5"/>
+      <c r="C19" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="D19" s="6"/>
       <c r="E19" s="6" t="s">
         <v>32</v>
@@ -1022,14 +1033,18 @@
       <c r="B22" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="5"/>
+      <c r="C22" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="D22" s="6"/>
       <c r="E22" s="6" t="s">
         <v>32</v>
       </c>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
-      <c r="H22" s="5"/>
+      <c r="H22" s="5" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="23" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
@@ -1135,7 +1150,9 @@
       </c>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
-      <c r="H28" s="5"/>
+      <c r="H28" s="5" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="29" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
@@ -1169,7 +1186,9 @@
       </c>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
-      <c r="H30" s="5"/>
+      <c r="H30" s="5" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="31" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="4">

--- a/Documents/log.xlsx
+++ b/Documents/log.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="51">
   <si>
     <t>Task</t>
   </si>
@@ -216,7 +216,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -226,6 +226,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -257,7 +263,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -282,6 +288,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -647,8 +660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:H32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B29" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B25" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1107,7 +1120,9 @@
       <c r="B26" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C26" s="5"/>
+      <c r="C26" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="D26" s="6"/>
       <c r="E26" s="6" t="s">
         <v>32</v>
@@ -1140,17 +1155,17 @@
       <c r="A28" s="4">
         <v>38</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="5"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6" t="s">
+      <c r="C28" s="11"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="5" t="s">
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="11" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1161,7 +1176,9 @@
       <c r="B29" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="5"/>
+      <c r="C29" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="D29" s="6"/>
       <c r="E29" s="6" t="s">
         <v>33</v>
